--- a/config_6.22/fish_yutu_random_2.xlsx
+++ b/config_6.22/fish_yutu_random_2.xlsx
@@ -248,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -281,9 +281,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,14 +296,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -312,8 +303,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,38 +356,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,9 +394,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -390,45 +429,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -451,13 +451,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,13 +523,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,85 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,19 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,37 +631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,21 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -686,44 +671,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,156 +707,206 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1696,10 +1696,10 @@
         <v>63</v>
       </c>
       <c r="F7" s="6">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="G7" s="6">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1719,10 +1719,10 @@
         <v>63</v>
       </c>
       <c r="F8" s="6">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="G8" s="6">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1742,10 +1742,10 @@
         <v>63</v>
       </c>
       <c r="F9" s="6">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="G9" s="6">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1765,10 +1765,10 @@
         <v>63</v>
       </c>
       <c r="F10" s="6">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="G10" s="6">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="16.5" spans="1:7">
@@ -1788,10 +1788,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="6">
-        <v>1623110400</v>
+        <v>1624320000</v>
       </c>
       <c r="G11" s="6">
-        <v>1623686399</v>
+        <v>1624895999</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:7">

--- a/config_6.22/fish_yutu_random_2.xlsx
+++ b/config_6.22/fish_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>no</t>
   </si>
@@ -248,12 +248,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,13 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -282,12 +289,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -303,37 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -343,72 +408,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,7 +424,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +458,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,13 +518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +554,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +590,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,13 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,13 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,85 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,17 +670,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,32 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,22 +735,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -763,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,140 +782,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -920,11 +927,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -933,8 +943,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -945,7 +955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
@@ -1294,28 +1304,28 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="67.5" spans="1:8">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1361,10 +1371,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1410,10 +1420,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1467,10 +1477,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1516,10 +1526,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1557,10 +1567,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1787,11 +1797,11 @@
       <c r="E11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="6">
-        <v>1624320000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1624895999</v>
+      <c r="F11" s="7">
+        <v>1623167999</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1623254399</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="16.5" spans="1:7">
@@ -1807,13 +1817,13 @@
       <c r="D12" s="2">
         <v>300</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>1613433600</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -1830,13 +1840,13 @@
       <c r="D13" s="2">
         <v>300</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>1613433600</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -1853,13 +1863,13 @@
       <c r="D14" s="2">
         <v>300</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <v>1613433600</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -1876,13 +1886,13 @@
       <c r="D15" s="2">
         <v>300</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="9">
         <v>1613433600</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -1899,13 +1909,13 @@
       <c r="D16" s="2">
         <v>3000</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>1613433600</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>1614009599</v>
       </c>
     </row>
@@ -1922,13 +1932,13 @@
       <c r="D17" s="2">
         <v>300</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <v>1614038400</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -1945,13 +1955,13 @@
       <c r="D18" s="2">
         <v>300</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <v>1614038400</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -1968,13 +1978,13 @@
       <c r="D19" s="2">
         <v>300</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <v>1614038400</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -1991,13 +2001,13 @@
       <c r="D20" s="2">
         <v>300</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <v>1614038400</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <v>1614614399</v>
       </c>
     </row>
@@ -2014,14 +2024,37 @@
       <c r="D21" s="2">
         <v>3000</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <v>1614038400</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <v>1614614399</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>225</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1624320000</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1624895999</v>
       </c>
     </row>
   </sheetData>
@@ -2042,476 +2075,476 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="13.125" style="16" customWidth="1"/>
-    <col min="3" max="4" width="13.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18" style="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="13.125" style="17" customWidth="1"/>
+    <col min="3" max="4" width="13.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="20">
         <v>15</v>
       </c>
-      <c r="D2" s="19">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
         <v>5</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="17">
+      <c r="F2" s="20"/>
+      <c r="G2" s="18">
         <v>1569886200</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="18">
         <v>1570456800</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="18">
         <v>16</v>
       </c>
-      <c r="D3" s="17">
-        <v>2</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17">
+      <c r="D3" s="18">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18">
         <v>1569886200</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="18">
         <v>1570456800</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="16">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>17</v>
       </c>
-      <c r="D4" s="17">
-        <v>2</v>
-      </c>
-      <c r="E4" s="17">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
         <v>1200</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="20">
         <v>1559186972</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="18">
         <v>2555555555</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="16">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>21</v>
       </c>
-      <c r="D5" s="19">
-        <v>2</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17">
+      <c r="D5" s="20">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="18">
         <v>1569886200</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="18">
         <v>2555555555</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>22</v>
       </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>2</v>
+      </c>
+      <c r="G6" s="18">
         <v>1569886200</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="18">
         <v>2555555555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="16">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>23</v>
       </c>
-      <c r="D7" s="19">
-        <v>2</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
         <v>1569886200</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="18">
         <v>2555555555</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="16">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>24</v>
       </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17">
+      <c r="D8" s="20">
+        <v>2</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
         <v>1569886200</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="18">
         <v>2555555555</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="18">
         <v>35</v>
       </c>
-      <c r="D9" s="17">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17">
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="18">
         <v>1606751999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="18">
         <v>36</v>
       </c>
-      <c r="D10" s="17">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="18">
         <v>1606751999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="16">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="18">
         <v>37</v>
       </c>
-      <c r="D11" s="17">
-        <v>2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="18">
         <v>1606751999</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="18">
         <v>38</v>
       </c>
-      <c r="D12" s="17">
-        <v>2</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
         <v>5</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" s="15" customFormat="1" spans="1:8">
-      <c r="A13" s="16">
+    <row r="13" s="16" customFormat="1" spans="1:8">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="21">
         <v>40</v>
       </c>
-      <c r="D13" s="21">
-        <v>2</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20">
+      <c r="D13" s="22">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="21">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="1" spans="1:8">
-      <c r="A14" s="16">
+    <row r="14" s="16" customFormat="1" spans="1:8">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>41</v>
       </c>
-      <c r="D14" s="21">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20">
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="21">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" s="15" customFormat="1" spans="1:8">
-      <c r="A15" s="16">
+    <row r="15" s="16" customFormat="1" spans="1:8">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="21">
         <v>42</v>
       </c>
-      <c r="D15" s="21">
-        <v>2</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20">
+      <c r="D15" s="22">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="21">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" s="15" customFormat="1" spans="1:8">
-      <c r="A16" s="16">
+    <row r="16" s="16" customFormat="1" spans="1:8">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="21">
         <v>43</v>
       </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="21">
+      <c r="D16" s="22">
+        <v>2</v>
+      </c>
+      <c r="E16" s="22">
         <v>5</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20">
+      <c r="F16" s="22"/>
+      <c r="G16" s="21">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="21">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2531,14 +2564,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="27" spans="1:3">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="27" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2570,17 +2603,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2714,146 +2747,146 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="10"/>
-    <col min="2" max="2" width="111.75" style="10" customWidth="1"/>
-    <col min="3" max="4" width="17.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.75" style="10"/>
+    <col min="1" max="1" width="10.75" style="11"/>
+    <col min="2" max="2" width="111.75" style="11" customWidth="1"/>
+    <col min="3" max="4" width="17.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="30.95" customHeight="1" spans="1:5">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:5">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:5">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" ht="17.1" customHeight="1" spans="1:5">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:5">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="14"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="2:2">
       <c r="B13"/>
@@ -2984,17 +3017,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="42" customHeight="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3142,62 +3175,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="10.75" style="10"/>
+    <col min="1" max="16384" width="10.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="1" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
         <v>30</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>40</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
         <v>25</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>30</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>25</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>3</v>
       </c>
     </row>
@@ -3219,10 +3252,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3284,10 +3317,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>52</v>
       </c>
     </row>

--- a/config_6.22/fish_yutu_random_2.xlsx
+++ b/config_6.22/fish_yutu_random_2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="71">
   <si>
     <t>no</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>222,223,224,</t>
+  </si>
+  <si>
+    <t>225,</t>
   </si>
 </sst>
 </file>
@@ -248,10 +251,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -288,22 +291,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,9 +306,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -335,9 +343,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,30 +366,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,14 +381,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -414,9 +402,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +425,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -458,13 +461,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,169 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,15 +670,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -687,6 +681,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,6 +709,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,35 +738,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,16 +756,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,138 +785,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1570,7 +1573,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2038,8 +2041,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>225</v>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C22" s="1">
         <v>2400</v>
